--- a/powerapp/data/rly_hvcb.xlsx
+++ b/powerapp/data/rly_hvcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB5ACE8-C956-7040-8932-25B99C6FE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCF88F-510C-AF49-A830-1E9FBEA9215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="68800" windowHeight="26380" xr2:uid="{1573EAB7-FFAF-4561-9B65-1A3D884CB122}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="hvcb_rly_assignment" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hvcb_rly_assignment!$A$1:$A$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hvcb_rly_assignment!$A$1:$A$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="196">
   <si>
     <t>mnemonic</t>
   </si>
@@ -378,15 +378,6 @@
   </si>
   <si>
     <t>MJYA</t>
-  </si>
-  <si>
-    <t>SSUN</t>
-  </si>
-  <si>
-    <t>TJID 3</t>
-  </si>
-  <si>
-    <t>TJID 4</t>
   </si>
   <si>
     <t>BNTS</t>
@@ -1074,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1100,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>59</v>
@@ -1126,7 +1117,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>59</v>
@@ -1143,7 +1134,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>62</v>
@@ -1160,7 +1151,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>64</v>
@@ -1177,7 +1168,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>64</v>
@@ -1194,7 +1185,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>67</v>
@@ -1211,7 +1202,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>67</v>
@@ -1228,7 +1219,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>70</v>
@@ -1245,7 +1236,7 @@
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>70</v>
@@ -1269,7 +1260,7 @@
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>75</v>
@@ -1293,7 +1284,7 @@
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>75</v>
@@ -1317,7 +1308,7 @@
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>78</v>
@@ -1341,7 +1332,7 @@
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>78</v>
@@ -1365,7 +1356,7 @@
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>81</v>
@@ -1389,7 +1380,7 @@
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>81</v>
@@ -1413,7 +1404,7 @@
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>86</v>
@@ -1437,7 +1428,7 @@
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>86</v>
@@ -1461,7 +1452,7 @@
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>86</v>
@@ -1485,7 +1476,7 @@
     </row>
     <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>86</v>
@@ -1509,7 +1500,7 @@
     </row>
     <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>86</v>
@@ -1533,7 +1524,7 @@
     </row>
     <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>90</v>
@@ -1557,7 +1548,7 @@
     </row>
     <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>93</v>
@@ -1581,7 +1572,7 @@
     </row>
     <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>93</v>
@@ -1605,7 +1596,7 @@
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>98</v>
@@ -1629,7 +1620,7 @@
     </row>
     <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>98</v>
@@ -1653,7 +1644,7 @@
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>100</v>
@@ -1677,7 +1668,7 @@
     </row>
     <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>100</v>
@@ -1701,7 +1692,7 @@
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>105</v>
@@ -1725,7 +1716,7 @@
     </row>
     <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>105</v>
@@ -1749,7 +1740,7 @@
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>46</v>
@@ -1773,7 +1764,7 @@
     </row>
     <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>46</v>
@@ -1797,7 +1788,7 @@
     </row>
     <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>109</v>
@@ -1821,7 +1812,7 @@
     </row>
     <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>109</v>
@@ -1845,7 +1836,7 @@
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>43</v>
@@ -1869,7 +1860,7 @@
     </row>
     <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>43</v>
@@ -1989,7 +1980,7 @@
     </row>
     <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>55</v>
@@ -2013,7 +2004,7 @@
     </row>
     <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>55</v>
@@ -2037,19 +2028,19 @@
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C43" s="6">
         <v>132</v>
       </c>
-      <c r="D43" s="9">
-        <v>705</v>
+      <c r="D43" s="5">
+        <v>505</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2061,19 +2052,19 @@
     </row>
     <row r="44" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C44" s="6">
         <v>132</v>
       </c>
       <c r="D44" s="5">
-        <v>805</v>
+        <v>605</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2085,19 +2076,19 @@
     </row>
     <row r="45" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C45" s="6">
         <v>132</v>
       </c>
       <c r="D45" s="5">
-        <v>505</v>
+        <v>205</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2109,19 +2100,19 @@
     </row>
     <row r="46" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C46" s="6">
         <v>132</v>
       </c>
       <c r="D46" s="5">
-        <v>605</v>
+        <v>405</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2131,12 +2122,12 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C47" s="6">
         <v>132</v>
@@ -2145,151 +2136,137 @@
         <v>205</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C48" s="6">
         <v>132</v>
       </c>
       <c r="D48" s="5">
-        <v>405</v>
+        <v>705</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C49" s="6">
         <v>132</v>
       </c>
       <c r="D49" s="5">
+        <v>105</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="6">
+        <v>132</v>
+      </c>
+      <c r="D50" s="5">
         <v>205</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="6">
-        <v>132</v>
-      </c>
-      <c r="D50" s="5">
-        <v>705</v>
-      </c>
       <c r="E50" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C51" s="6">
         <v>132</v>
       </c>
       <c r="D51" s="5">
-        <v>105</v>
+        <v>705</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="6">
+        <v>132</v>
+      </c>
+      <c r="D52" s="5">
+        <v>805</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="6">
-        <v>132</v>
-      </c>
-      <c r="D52" s="5">
-        <v>205</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C53" s="6">
         <v>132</v>
       </c>
       <c r="D53" s="5">
-        <v>705</v>
+        <v>605</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C54" s="6">
         <v>132</v>
       </c>
       <c r="D54" s="5">
-        <v>805</v>
+        <v>505</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>120</v>
@@ -2297,10 +2274,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C55" s="6">
         <v>132</v>
@@ -2309,24 +2286,24 @@
         <v>605</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="6">
+        <v>132</v>
+      </c>
+      <c r="D56" s="5">
+        <v>105</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="6">
-        <v>132</v>
-      </c>
-      <c r="D56" s="5">
-        <v>505</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2334,16 +2311,16 @@
         <v>16</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C57" s="6">
         <v>132</v>
       </c>
       <c r="D57" s="5">
-        <v>605</v>
+        <v>205</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2351,7 +2328,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C58" s="6">
         <v>132</v>
@@ -2360,12 +2337,12 @@
         <v>105</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>125</v>
@@ -2374,15 +2351,15 @@
         <v>132</v>
       </c>
       <c r="D59" s="5">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>125</v>
@@ -2391,10 +2368,10 @@
         <v>132</v>
       </c>
       <c r="D60" s="5">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,10 +2385,10 @@
         <v>132</v>
       </c>
       <c r="D61" s="5">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2425,78 +2402,92 @@
         <v>132</v>
       </c>
       <c r="D62" s="5">
-        <v>405</v>
+        <v>605</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C63" s="6">
         <v>132</v>
       </c>
-      <c r="D63" s="5">
-        <v>505</v>
+      <c r="D63" s="9">
+        <v>805</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C64" s="6">
         <v>132</v>
       </c>
-      <c r="D64" s="5">
-        <v>605</v>
+      <c r="D64" s="9">
+        <v>305</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C65" s="6">
         <v>132</v>
       </c>
-      <c r="D65" s="9">
-        <v>805</v>
+      <c r="D65" s="5">
+        <v>705</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C66" s="6">
         <v>132</v>
       </c>
-      <c r="D66" s="9">
-        <v>305</v>
+      <c r="D66" s="5">
+        <v>805</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -2506,12 +2497,12 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C67" s="6">
         <v>132</v>
@@ -2520,7 +2511,7 @@
         <v>705</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -2535,7 +2526,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C68" s="6">
         <v>132</v>
@@ -2544,7 +2535,7 @@
         <v>805</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -2559,16 +2550,16 @@
         <v>20</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C69" s="6">
         <v>132</v>
       </c>
       <c r="D69" s="5">
-        <v>705</v>
+        <v>905</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -2578,33 +2569,26 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C70" s="6">
         <v>132</v>
       </c>
       <c r="D70" s="5">
-        <v>805</v>
+        <v>1005</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>136</v>
@@ -2613,22 +2597,15 @@
         <v>132</v>
       </c>
       <c r="D71" s="5">
-        <v>905</v>
+        <v>205</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>136</v>
@@ -2637,18 +2614,18 @@
         <v>132</v>
       </c>
       <c r="D72" s="5">
-        <v>1005</v>
+        <v>305</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C73" s="6">
         <v>132</v>
@@ -2657,15 +2634,15 @@
         <v>205</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C74" s="6">
         <v>132</v>
@@ -2674,15 +2651,15 @@
         <v>305</v>
       </c>
       <c r="E74" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="C75" s="6">
         <v>132</v>
@@ -2696,61 +2673,75 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C76" s="6">
         <v>132</v>
       </c>
       <c r="D76" s="5">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="6">
+        <v>132</v>
+      </c>
+      <c r="D77" s="5">
+        <v>305</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="6">
-        <v>132</v>
-      </c>
-      <c r="D77" s="5">
-        <v>205</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C78" s="6">
         <v>132</v>
       </c>
       <c r="D78" s="5">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C79" s="6">
         <v>132</v>
@@ -2771,10 +2762,10 @@
     </row>
     <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C80" s="6">
         <v>132</v>
@@ -2804,10 +2795,10 @@
         <v>132</v>
       </c>
       <c r="D81" s="5">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -2828,10 +2819,10 @@
         <v>132</v>
       </c>
       <c r="D82" s="5">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -2843,19 +2834,19 @@
     </row>
     <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C83" s="6">
         <v>132</v>
       </c>
       <c r="D83" s="5">
-        <v>105</v>
+        <v>705</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -2867,19 +2858,19 @@
     </row>
     <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="6">
+        <v>132</v>
+      </c>
+      <c r="D84" s="5">
+        <v>305</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C84" s="6">
-        <v>132</v>
-      </c>
-      <c r="D84" s="5">
-        <v>205</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -2894,16 +2885,16 @@
         <v>28</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="6">
+        <v>132</v>
+      </c>
+      <c r="D85" s="5">
+        <v>405</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C85" s="6">
-        <v>132</v>
-      </c>
-      <c r="D85" s="5">
-        <v>705</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -2913,55 +2904,41 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="6">
+        <v>132</v>
+      </c>
+      <c r="D86" s="5">
+        <v>205</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="6">
+        <v>132</v>
+      </c>
+      <c r="D87" s="5">
+        <v>105</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="6">
-        <v>132</v>
-      </c>
-      <c r="D86" s="5">
-        <v>305</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-    </row>
-    <row r="87" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="6">
-        <v>132</v>
-      </c>
-      <c r="D87" s="5">
-        <v>405</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-    </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
@@ -2975,10 +2952,10 @@
         <v>205</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>29</v>
       </c>
@@ -2992,41 +2969,41 @@
         <v>105</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C90" s="6">
         <v>132</v>
       </c>
       <c r="D90" s="5">
-        <v>205</v>
+        <v>505</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C91" s="6">
         <v>132</v>
       </c>
       <c r="D91" s="5">
-        <v>105</v>
+        <v>605</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3034,16 +3011,16 @@
         <v>31</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C92" s="6">
         <v>132</v>
       </c>
       <c r="D92" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3051,357 +3028,323 @@
         <v>31</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C93" s="6">
         <v>132</v>
       </c>
       <c r="D93" s="5">
-        <v>605</v>
+        <v>405</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C94" s="6">
         <v>132</v>
       </c>
       <c r="D94" s="5">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>161</v>
       </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C95" s="6">
         <v>132</v>
       </c>
       <c r="D95" s="5">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="6">
+        <v>132</v>
+      </c>
+      <c r="D96" s="5">
+        <v>305</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="6">
-        <v>132</v>
-      </c>
-      <c r="D96" s="5">
-        <v>105</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C97" s="6">
         <v>132</v>
       </c>
       <c r="D97" s="5">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C98" s="6">
         <v>132</v>
       </c>
       <c r="D98" s="5">
-        <v>305</v>
+        <v>905</v>
       </c>
       <c r="E98" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="6">
+        <v>132</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="6">
-        <v>132</v>
-      </c>
-      <c r="D99" s="5">
-        <v>405</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C100" s="6">
         <v>132</v>
       </c>
       <c r="D100" s="5">
-        <v>905</v>
+        <v>505</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C101" s="6">
         <v>132</v>
       </c>
       <c r="D101" s="5">
-        <v>1005</v>
+        <v>605</v>
       </c>
       <c r="E101" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="6">
+        <v>132</v>
+      </c>
+      <c r="D102" s="5">
+        <v>105</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="6">
+        <v>132</v>
+      </c>
+      <c r="D103" s="5">
+        <v>205</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="6">
+        <v>132</v>
+      </c>
+      <c r="D104" s="9">
+        <v>505</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="5" t="s">
+    <row r="105" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="6">
+        <v>132</v>
+      </c>
+      <c r="D105" s="9">
+        <v>605</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="6">
-        <v>132</v>
-      </c>
-      <c r="D102" s="5">
-        <v>505</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C103" s="6">
-        <v>132</v>
-      </c>
-      <c r="D103" s="5">
-        <v>605</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="6">
-        <v>132</v>
-      </c>
-      <c r="D104" s="5">
-        <v>105</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="6">
-        <v>132</v>
-      </c>
-      <c r="D105" s="5">
-        <v>205</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="6">
+        <v>132</v>
+      </c>
+      <c r="D106" s="9">
+        <v>705</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="6">
-        <v>132</v>
-      </c>
-      <c r="D106" s="9">
-        <v>505</v>
-      </c>
-      <c r="E106" s="6" t="s">
+    </row>
+    <row r="107" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="6">
+        <v>132</v>
+      </c>
+      <c r="D107" s="5">
+        <v>105</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="6">
-        <v>132</v>
-      </c>
-      <c r="D107" s="9">
-        <v>605</v>
-      </c>
-      <c r="E107" s="6" t="s">
+    <row r="108" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="6">
+        <v>132</v>
+      </c>
+      <c r="D108" s="5">
+        <v>205</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C108" s="6">
-        <v>132</v>
-      </c>
-      <c r="D108" s="9">
-        <v>705</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C109" s="6">
         <v>132</v>
       </c>
       <c r="D109" s="5">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C110" s="6">
         <v>132</v>
       </c>
       <c r="D110" s="5">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C111" s="6">
-        <v>132</v>
-      </c>
-      <c r="D111" s="5">
-        <v>305</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C112" s="6">
-        <v>132</v>
-      </c>
-      <c r="D112" s="5">
-        <v>405</v>
-      </c>
-      <c r="E112" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A112" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:A110" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/powerapp/data/rly_hvcb.xlsx
+++ b/powerapp/data/rly_hvcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCF88F-510C-AF49-A830-1E9FBEA9215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142BC8AD-7DAA-2340-8E59-B30B488B9FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="68800" windowHeight="26380" xr2:uid="{1573EAB7-FFAF-4561-9B65-1A3D884CB122}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>breaker_id</t>
   </si>
   <si>
-    <t>group_trip_id</t>
-  </si>
-  <si>
     <t>klmk_rtau</t>
   </si>
   <si>
@@ -566,57 +563,9 @@
     <t>SABG</t>
   </si>
   <si>
-    <t>gbid_kstl_132</t>
-  </si>
-  <si>
-    <t>tlst_tltp_132</t>
-  </si>
-  <si>
-    <t>pgdt_ttan_132</t>
-  </si>
-  <si>
-    <t>pgie_astm_132</t>
-  </si>
-  <si>
-    <t>tlie_bstl_275</t>
-  </si>
-  <si>
-    <t>tgln_jdsi_132</t>
-  </si>
-  <si>
-    <t>tklg_pwsm_275</t>
-  </si>
-  <si>
-    <t>olpt_mgst_275</t>
-  </si>
-  <si>
-    <t>brgs_asmb_275</t>
-  </si>
-  <si>
-    <t>brgs_mswk_132</t>
-  </si>
-  <si>
-    <t>btgh_sron2_132</t>
-  </si>
-  <si>
-    <t>bdng_pwgr_275</t>
-  </si>
-  <si>
-    <t>prid_sron_132</t>
-  </si>
-  <si>
-    <t>prid_srnw_132</t>
-  </si>
-  <si>
-    <t>sksp_mwta_132</t>
-  </si>
-  <si>
     <t>pklg_igbk</t>
   </si>
   <si>
-    <t>tjgs_shel_132</t>
-  </si>
-  <si>
     <t>kawa_kryg</t>
   </si>
   <si>
@@ -626,7 +575,58 @@
     <t>proi_rasa</t>
   </si>
   <si>
-    <t>smrk_hlnn_132</t>
+    <t>kstl_132</t>
+  </si>
+  <si>
+    <t>tltp_132</t>
+  </si>
+  <si>
+    <t>ttan_132</t>
+  </si>
+  <si>
+    <t>astm_132</t>
+  </si>
+  <si>
+    <t>bstl_275</t>
+  </si>
+  <si>
+    <t>jdsi_132</t>
+  </si>
+  <si>
+    <t>pwsm_275</t>
+  </si>
+  <si>
+    <t>mgst_275</t>
+  </si>
+  <si>
+    <t>asmb_275</t>
+  </si>
+  <si>
+    <t>mswk_132</t>
+  </si>
+  <si>
+    <t>sron2_132</t>
+  </si>
+  <si>
+    <t>pwgr_275</t>
+  </si>
+  <si>
+    <t>sron_132</t>
+  </si>
+  <si>
+    <t>srnw_132</t>
+  </si>
+  <si>
+    <t>mwta_132</t>
+  </si>
+  <si>
+    <t>shel_132</t>
+  </si>
+  <si>
+    <t>hlnn_132</t>
+  </si>
+  <si>
+    <t>assignment_id</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD44"/>
+    <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6">
         <v>132</v>
@@ -1112,15 +1112,15 @@
         <v>105</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6">
         <v>132</v>
@@ -1129,15 +1129,15 @@
         <v>405</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6">
         <v>132</v>
@@ -1146,15 +1146,15 @@
         <v>505</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6">
         <v>132</v>
@@ -1163,15 +1163,15 @@
         <v>905</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6">
         <v>132</v>
@@ -1180,15 +1180,15 @@
         <v>1005</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6">
         <v>132</v>
@@ -1197,15 +1197,15 @@
         <v>805</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6">
         <v>132</v>
@@ -1214,41 +1214,41 @@
         <v>905</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6">
         <v>275</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6">
         <v>275</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6">
         <v>132</v>
@@ -1272,7 +1272,7 @@
         <v>505</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6">
         <v>132</v>
@@ -1296,7 +1296,7 @@
         <v>605</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1308,19 +1308,19 @@
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6">
         <v>275</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1332,19 +1332,19 @@
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6">
         <v>275</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1356,19 +1356,19 @@
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6">
         <v>275</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1380,19 +1380,19 @@
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6">
         <v>275</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6">
         <v>132</v>
@@ -1416,7 +1416,7 @@
         <v>11130</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="6">
         <v>132</v>
@@ -1440,7 +1440,7 @@
         <v>11230</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="6">
         <v>132</v>
@@ -1464,7 +1464,7 @@
         <v>11330</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="6">
         <v>132</v>
@@ -1488,7 +1488,7 @@
         <v>7130</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6">
         <v>132</v>
@@ -1512,7 +1512,7 @@
         <v>7230</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="6">
         <v>132</v>
@@ -1536,7 +1536,7 @@
         <v>905</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1548,19 +1548,19 @@
     </row>
     <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6">
         <v>275</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1572,19 +1572,19 @@
     </row>
     <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="6">
         <v>275</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="6">
         <v>132</v>
@@ -1608,7 +1608,7 @@
         <v>505</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="6">
         <v>132</v>
@@ -1632,7 +1632,7 @@
         <v>605</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6">
         <v>132</v>
@@ -1656,7 +1656,7 @@
         <v>105</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="6">
         <v>132</v>
@@ -1680,7 +1680,7 @@
         <v>205</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1692,19 +1692,19 @@
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="6">
         <v>230</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1716,19 +1716,19 @@
     </row>
     <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="6">
         <v>230</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="6">
         <v>132</v>
@@ -1752,7 +1752,7 @@
         <v>305</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6">
         <v>132</v>
@@ -1776,7 +1776,7 @@
         <v>405</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="6">
         <v>132</v>
@@ -1800,7 +1800,7 @@
         <v>505</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6">
         <v>132</v>
@@ -1824,7 +1824,7 @@
         <v>605</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6">
         <v>132</v>
@@ -1848,7 +1848,7 @@
         <v>705</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6">
         <v>132</v>
@@ -1872,7 +1872,7 @@
         <v>805</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="6">
         <v>132</v>
@@ -1896,7 +1896,7 @@
         <v>105</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="6">
         <v>132</v>
@@ -1920,7 +1920,7 @@
         <v>205</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="6">
         <v>132</v>
@@ -1944,7 +1944,7 @@
         <v>105</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6">
         <v>132</v>
@@ -1968,7 +1968,7 @@
         <v>205</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="6">
         <v>132</v>
@@ -1992,7 +1992,7 @@
         <v>105</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="6">
         <v>132</v>
@@ -2016,7 +2016,7 @@
         <v>205</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="6">
         <v>132</v>
@@ -2040,7 +2040,7 @@
         <v>505</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="44" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="6">
         <v>132</v>
@@ -2064,7 +2064,7 @@
         <v>605</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="45" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="6">
         <v>132</v>
@@ -2088,7 +2088,7 @@
         <v>205</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="46" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="6">
         <v>132</v>
@@ -2112,7 +2112,7 @@
         <v>405</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="6">
         <v>132</v>
@@ -2136,15 +2136,15 @@
         <v>205</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="6">
         <v>132</v>
@@ -2153,15 +2153,15 @@
         <v>705</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="6">
         <v>132</v>
@@ -2170,7 +2170,7 @@
         <v>105</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="50" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="6">
         <v>132</v>
@@ -2194,7 +2194,7 @@
         <v>205</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="51" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="6">
         <v>132</v>
@@ -2218,15 +2218,15 @@
         <v>705</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="6">
         <v>132</v>
@@ -2235,15 +2235,15 @@
         <v>805</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="6">
         <v>132</v>
@@ -2252,15 +2252,15 @@
         <v>605</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="6">
         <v>132</v>
@@ -2269,15 +2269,15 @@
         <v>505</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="6">
         <v>132</v>
@@ -2286,15 +2286,15 @@
         <v>605</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="6">
         <v>132</v>
@@ -2303,15 +2303,15 @@
         <v>105</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="6">
         <v>132</v>
@@ -2320,15 +2320,15 @@
         <v>205</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="6">
         <v>132</v>
@@ -2337,15 +2337,15 @@
         <v>105</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="6">
         <v>132</v>
@@ -2354,15 +2354,15 @@
         <v>305</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="6">
         <v>132</v>
@@ -2371,15 +2371,15 @@
         <v>405</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="6">
         <v>132</v>
@@ -2388,15 +2388,15 @@
         <v>505</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="6">
         <v>132</v>
@@ -2405,15 +2405,15 @@
         <v>605</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="6">
         <v>132</v>
@@ -2422,15 +2422,15 @@
         <v>805</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="6">
         <v>132</v>
@@ -2439,7 +2439,7 @@
         <v>305</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="65" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="6">
         <v>132</v>
@@ -2463,7 +2463,7 @@
         <v>705</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="6">
         <v>132</v>
@@ -2487,7 +2487,7 @@
         <v>805</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C67" s="6">
         <v>132</v>
@@ -2511,7 +2511,7 @@
         <v>705</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="68" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="6">
         <v>132</v>
@@ -2535,7 +2535,7 @@
         <v>805</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="69" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="6">
         <v>132</v>
@@ -2559,7 +2559,7 @@
         <v>905</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="6">
         <v>132</v>
@@ -2583,15 +2583,15 @@
         <v>1005</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="6">
         <v>132</v>
@@ -2600,15 +2600,15 @@
         <v>205</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="6">
         <v>132</v>
@@ -2617,15 +2617,15 @@
         <v>305</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" s="6">
         <v>132</v>
@@ -2634,15 +2634,15 @@
         <v>205</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="6">
         <v>132</v>
@@ -2651,15 +2651,15 @@
         <v>305</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="6">
         <v>132</v>
@@ -2668,15 +2668,15 @@
         <v>205</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="6">
         <v>132</v>
@@ -2685,15 +2685,15 @@
         <v>505</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C77" s="6">
         <v>132</v>
@@ -2702,7 +2702,7 @@
         <v>305</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="6">
         <v>132</v>
@@ -2726,7 +2726,7 @@
         <v>405</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -2738,10 +2738,10 @@
     </row>
     <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="6">
         <v>132</v>
@@ -2750,7 +2750,7 @@
         <v>305</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="6">
         <v>132</v>
@@ -2774,7 +2774,7 @@
         <v>405</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="6">
         <v>132</v>
@@ -2798,7 +2798,7 @@
         <v>105</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="6">
         <v>132</v>
@@ -2822,7 +2822,7 @@
         <v>205</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" s="6">
         <v>132</v>
@@ -2846,7 +2846,7 @@
         <v>705</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="6">
         <v>132</v>
@@ -2870,7 +2870,7 @@
         <v>305</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="6">
         <v>132</v>
@@ -2894,7 +2894,7 @@
         <v>405</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="86" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="6">
         <v>132</v>
@@ -2918,15 +2918,15 @@
         <v>205</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="6">
         <v>132</v>
@@ -2935,15 +2935,15 @@
         <v>105</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="6">
         <v>132</v>
@@ -2952,15 +2952,15 @@
         <v>205</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" s="6">
         <v>132</v>
@@ -2969,15 +2969,15 @@
         <v>105</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="6">
         <v>132</v>
@@ -2986,15 +2986,15 @@
         <v>505</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="6">
         <v>132</v>
@@ -3003,15 +3003,15 @@
         <v>605</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C92" s="6">
         <v>132</v>
@@ -3020,15 +3020,15 @@
         <v>305</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" s="6">
         <v>132</v>
@@ -3037,15 +3037,15 @@
         <v>405</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94" s="6">
         <v>132</v>
@@ -3054,7 +3054,7 @@
         <v>105</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="6">
         <v>132</v>
@@ -3078,15 +3078,15 @@
         <v>205</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" s="6">
         <v>132</v>
@@ -3095,15 +3095,15 @@
         <v>305</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="6">
         <v>132</v>
@@ -3112,15 +3112,15 @@
         <v>405</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="6">
         <v>132</v>
@@ -3129,15 +3129,15 @@
         <v>905</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="6">
         <v>132</v>
@@ -3146,15 +3146,15 @@
         <v>1005</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C100" s="6">
         <v>132</v>
@@ -3163,15 +3163,15 @@
         <v>505</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C101" s="6">
         <v>132</v>
@@ -3180,15 +3180,15 @@
         <v>605</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C102" s="6">
         <v>132</v>
@@ -3197,15 +3197,15 @@
         <v>105</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C103" s="6">
         <v>132</v>
@@ -3214,7 +3214,7 @@
         <v>205</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="104" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C104" s="6">
         <v>132</v>
@@ -3238,15 +3238,15 @@
         <v>505</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C105" s="6">
         <v>132</v>
@@ -3255,15 +3255,15 @@
         <v>605</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C106" s="6">
         <v>132</v>
@@ -3272,15 +3272,15 @@
         <v>705</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" s="6">
         <v>132</v>
@@ -3289,15 +3289,15 @@
         <v>105</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="6">
         <v>132</v>
@@ -3306,15 +3306,15 @@
         <v>205</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C109" s="6">
         <v>132</v>
@@ -3323,15 +3323,15 @@
         <v>305</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="6">
         <v>132</v>
@@ -3340,7 +3340,7 @@
         <v>405</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
